--- a/grade-weights.xlsx
+++ b/grade-weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cpsc-24500-2019-01-spring-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD8E9DE-8F38-4CA7-97DD-2ED47AE12FB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6465960-926E-D643-A861-6917C785812C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="25440" xr2:uid="{20E86786-433D-4F8C-9F11-A33A424DEDDB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="25440" xr2:uid="{20E86786-433D-4F8C-9F11-A33A424DEDDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Assignment</t>
   </si>
@@ -48,9 +48,6 @@
     <t>% of Grade</t>
   </si>
   <si>
-    <t xml:space="preserve">Programming </t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -60,10 +57,16 @@
     <t>Totals:</t>
   </si>
   <si>
+    <t>Discussion Board</t>
+  </si>
+  <si>
+    <t>Programming 1</t>
+  </si>
+  <si>
+    <t>Programming 2-7</t>
+  </si>
+  <si>
     <t>Quiz</t>
-  </si>
-  <si>
-    <t>Discussion Board</t>
   </si>
 </sst>
 </file>
@@ -470,19 +473,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98C32DE-6DB3-4054-B3A7-98ABDAE3D18C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,111 +502,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
         <f>B2*C2</f>
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6">
-        <f>D2/$D$7</f>
-        <v>0.52093023255813953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <f>D2/$D$8</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>192</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3/$D$8</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>16</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
         <v>128</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E6" si="1">D3/$D$7</f>
-        <v>0.29767441860465116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E7" si="1">D4/$D$8</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
-        <v>4.8837209302325581E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>2.0930232558139535E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>48</v>
-      </c>
-      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.11162790697674418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <f>SUM(D2:D6)</f>
-        <v>430</v>
-      </c>
-      <c r="E7" s="6">
-        <f>SUM(E2:E6)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM(D2:D7)</f>
+        <v>400</v>
+      </c>
+      <c r="E8" s="6">
+        <f>SUM(E2:E7)</f>
         <v>1</v>
       </c>
     </row>

--- a/grade-weights.xlsx
+++ b/grade-weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6465960-926E-D643-A861-6917C785812C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E12130C-6C1E-284B-BBAD-8CB5F1E5D947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="25440" xr2:uid="{20E86786-433D-4F8C-9F11-A33A424DEDDB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C6AF0A96-695C-4AFE-A6ED-9C6E0020EAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,16 @@
     <t>#</t>
   </si>
   <si>
+    <t>% of Grade</t>
+  </si>
+  <si>
+    <t>Total Pts</t>
+  </si>
+  <si>
     <t>Pts</t>
   </si>
   <si>
-    <t>Total Pts</t>
-  </si>
-  <si>
-    <t>% of Grade</t>
+    <t>Totals:</t>
   </si>
   <si>
     <t>Demo</t>
@@ -54,26 +57,23 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>Totals:</t>
+    <t>Programming 1</t>
+  </si>
+  <si>
+    <t>Programming 2-7</t>
+  </si>
+  <si>
+    <t>Quiz</t>
   </si>
   <si>
     <t>Discussion Board</t>
-  </si>
-  <si>
-    <t>Programming 1</t>
-  </si>
-  <si>
-    <t>Programming 2-7</t>
-  </si>
-  <si>
-    <t>Quiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,14 +85,7 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +118,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -135,30 +128,18 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,159 +453,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98C32DE-6DB3-4054-B3A7-98ABDAE3D18C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F94EE7-C625-4C82-ACF5-BFD5A4E772C0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>16</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <f>B2*C2</f>
         <v>16</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <f>D2/$D$8</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>32</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <f>B3*C3</f>
         <v>192</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <f>D3/$D$8</f>
         <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>128</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4/$D$8</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
-        <v>128</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E7" si="1">D4/$D$8</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
+      <c r="E5" s="1">
+        <f>D5/$D$8</f>
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6" si="1">B6*C6</f>
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <f>D6/$D$8</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
+        <f>B7*C7</f>
+        <v>32</v>
+      </c>
+      <c r="E7" s="8">
+        <f>D7/$D$8</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="1"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <f>SUM(D2:D7)</f>
         <v>400</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <f>SUM(E2:E7)</f>
         <v>1</v>
       </c>

--- a/grade-weights.xlsx
+++ b/grade-weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E12130C-6C1E-284B-BBAD-8CB5F1E5D947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4F5B9-A8B3-9542-979F-5AE24FEA6D3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C6AF0A96-695C-4AFE-A6ED-9C6E0020EAED}"/>
+    <workbookView xWindow="3600" yWindow="9220" windowWidth="51200" windowHeight="28340" xr2:uid="{C6AF0A96-695C-4AFE-A6ED-9C6E0020EAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Assignment</t>
   </si>
@@ -57,16 +57,13 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>Programming 1</t>
-  </si>
-  <si>
-    <t>Programming 2-7</t>
-  </si>
-  <si>
     <t>Quiz</t>
   </si>
   <si>
     <t>Discussion Board</t>
+  </si>
+  <si>
+    <t>Programming</t>
   </si>
 </sst>
 </file>
@@ -454,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F94EE7-C625-4C82-ACF5-BFD5A4E772C0}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -485,128 +482,109 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="E2" s="1">
-        <f>D2/$D$8</f>
-        <v>0.04</v>
+        <f>D2/$D$7</f>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <f>B3*C3</f>
-        <v>192</v>
+        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
+        <v>128</v>
       </c>
       <c r="E3" s="1">
-        <f>D3/$D$8</f>
-        <v>0.48</v>
+        <f>D3/$D$7</f>
+        <v>0.30476190476190479</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
-        <f>D4/$D$8</f>
-        <v>0.32</v>
+        <f>D4/$D$7</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="D5" s="5">
+        <f t="shared" ref="D5" si="1">B5*C5</f>
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <f>D5/$D$7</f>
+        <v>2.6190476190476191E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <f>D5/$D$8</f>
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" ref="D6" si="1">B6*C6</f>
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <f>D6/$D$8</f>
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7">
-        <f>B7*C7</f>
-        <v>32</v>
-      </c>
-      <c r="E7" s="8">
-        <f>D7/$D$8</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+      <c r="C6" s="7">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6*C6</f>
+        <v>36</v>
+      </c>
+      <c r="E6" s="8">
+        <f>D6/$D$7</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <f>SUM(D2:D7)</f>
-        <v>400</v>
-      </c>
-      <c r="E8" s="1">
-        <f>SUM(E2:E7)</f>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>420</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
         <v>1</v>
       </c>
     </row>
